--- a/src/test/java/Subscriptions/Data/Executions_Subscription.xlsx
+++ b/src/test/java/Subscriptions/Data/Executions_Subscription.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmal.syed.LOGICIELSERVICE\eclipse-workspace\OMS_API\src\test\java\Subscriptions\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_OMSAPI\src\test\java\Subscriptions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4D81DA-73F1-4C63-B09B-C78DBD41496F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A83A0A-83C4-4C77-BA27-9FC32E876887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="537" firstSheet="4" activeTab="7" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="537" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="SubscribeBUYExecutions" sheetId="10" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="SubscribeSHORTSELLExecutions" sheetId="18" r:id="rId3"/>
     <sheet name="SubscribeBUY_OptionExecutions" sheetId="19" r:id="rId4"/>
     <sheet name="SubscribeSELL_OptionExecutions" sheetId="21" r:id="rId5"/>
-    <sheet name="SubscribeSELL_DUMM_" sheetId="20" r:id="rId6"/>
-    <sheet name="SubscribeBUYOptionExecutions" sheetId="15" r:id="rId7"/>
-    <sheet name="UnSubscribeExecutions" sheetId="14" r:id="rId8"/>
+    <sheet name="SubscribeBUYOptionExecutions" sheetId="15" r:id="rId6"/>
+    <sheet name="UnSubscribeExecutions" sheetId="14" r:id="rId7"/>
+    <sheet name="SubscribeSELL_DUMM_" sheetId="20" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="175">
   <si>
     <t>Content_Type</t>
   </si>
@@ -556,6 +556,18 @@
   </si>
   <si>
     <t>Subscribe_Sell_OptionOrder_ExpectedStatus</t>
+  </si>
+  <si>
+    <t>Verify_SubscribeBUYExecutions_TC0002</t>
+  </si>
+  <si>
+    <t>Verify_SubscribeBUYExecutions_TC0003</t>
+  </si>
+  <si>
+    <t>Verify_SubscribeBUYExecutions_TC0004</t>
+  </si>
+  <si>
+    <t>Verify_SubscribeBUYExecutions_TC0005</t>
   </si>
 </sst>
 </file>
@@ -636,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -663,6 +675,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,15 +993,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41536820-D56A-41BA-A388-6D13CFA1508B}">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="14" width="44" customWidth="1"/>
     <col min="15" max="15" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="38.85546875" customWidth="1"/>
@@ -1227,7 +1243,448 @@
         <v>95</v>
       </c>
     </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>200</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="13">
+        <v>1.05</v>
+      </c>
+      <c r="M3" s="10">
+        <v>200</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="5">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="10">
+        <v>200</v>
+      </c>
+      <c r="W3" s="13">
+        <v>1.05</v>
+      </c>
+      <c r="X3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="13">
+        <v>1.05</v>
+      </c>
+      <c r="M4" s="10">
+        <v>200</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="5">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="10">
+        <v>200</v>
+      </c>
+      <c r="W4" s="13">
+        <v>1.05</v>
+      </c>
+      <c r="X4" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>200</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>200</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="10">
+        <v>200</v>
+      </c>
+      <c r="W5" s="10">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>200</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>200</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="5">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="10">
+        <v>200</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1947,7 +2404,7 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,6 +3114,899 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EBAE61-F90B-40F3-9A77-C32855587A47}">
+  <dimension ref="A1:Z10"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="14" width="48.140625" customWidth="1"/>
+    <col min="15" max="15" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="49.28515625" customWidth="1"/>
+    <col min="17" max="19" width="53.5703125" customWidth="1"/>
+    <col min="20" max="20" width="35.85546875" customWidth="1"/>
+    <col min="21" max="22" width="30.85546875" customWidth="1"/>
+    <col min="23" max="23" width="34.5703125" customWidth="1"/>
+    <col min="24" max="24" width="29.28515625" customWidth="1"/>
+    <col min="25" max="25" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5">
+        <v>40</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="3">
+        <v>200</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>200</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="5">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="5">
+        <v>2</v>
+      </c>
+      <c r="X2" s="5">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5">
+        <v>41</v>
+      </c>
+      <c r="J3" s="5">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="3">
+        <v>200</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>200</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="5">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="5">
+        <v>3</v>
+      </c>
+      <c r="X3" s="5">
+        <v>41</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5">
+        <v>42</v>
+      </c>
+      <c r="J4" s="5">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="3">
+        <v>200</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>200</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="5">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="5">
+        <v>4</v>
+      </c>
+      <c r="X4" s="5">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5">
+        <v>43</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="3">
+        <v>200</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>200</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="5">
+        <v>5</v>
+      </c>
+      <c r="X5" s="5">
+        <v>43</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>44</v>
+      </c>
+      <c r="J6" s="9">
+        <v>6</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="8">
+        <v>200</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>200</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="9">
+        <v>1</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" s="9">
+        <v>6</v>
+      </c>
+      <c r="X6" s="9">
+        <v>44</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45</v>
+      </c>
+      <c r="J7" s="5">
+        <v>7</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="3">
+        <v>200</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>200</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="5">
+        <v>2</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" s="5">
+        <v>7</v>
+      </c>
+      <c r="X7" s="5">
+        <v>45</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="5">
+        <v>46</v>
+      </c>
+      <c r="J8" s="5">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="5">
+        <v>2</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" s="5">
+        <v>8</v>
+      </c>
+      <c r="X8" s="5">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="5">
+        <v>47</v>
+      </c>
+      <c r="J9" s="5">
+        <v>9</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>200</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" s="5">
+        <v>2</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W9" s="5">
+        <v>9</v>
+      </c>
+      <c r="X9" s="5">
+        <v>47</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5">
+        <v>48</v>
+      </c>
+      <c r="J10" s="5">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" s="5">
+        <v>2</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" s="5">
+        <v>10</v>
+      </c>
+      <c r="X10" s="5">
+        <v>48</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5AC4B7-6134-45E3-A57F-AB8A9E04659F}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6527773F-78BB-4688-B8F6-918D11F3B533}">
   <dimension ref="A1:BL2"/>
   <sheetViews>
@@ -3099,897 +4449,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EBAE61-F90B-40F3-9A77-C32855587A47}">
-  <dimension ref="A1:Z10"/>
-  <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="14" width="48.140625" customWidth="1"/>
-    <col min="15" max="15" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="49.28515625" customWidth="1"/>
-    <col min="17" max="19" width="53.5703125" customWidth="1"/>
-    <col min="20" max="20" width="35.85546875" customWidth="1"/>
-    <col min="21" max="22" width="30.85546875" customWidth="1"/>
-    <col min="23" max="23" width="34.5703125" customWidth="1"/>
-    <col min="24" max="24" width="29.28515625" customWidth="1"/>
-    <col min="25" max="25" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5">
-        <v>40</v>
-      </c>
-      <c r="J2" s="5">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="3">
-        <v>200</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>200</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="5">
-        <v>1</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="5">
-        <v>2</v>
-      </c>
-      <c r="X2" s="5">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5">
-        <v>41</v>
-      </c>
-      <c r="J3" s="5">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="3">
-        <v>200</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>200</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="5">
-        <v>1</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W3" s="5">
-        <v>3</v>
-      </c>
-      <c r="X3" s="5">
-        <v>41</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="5">
-        <v>42</v>
-      </c>
-      <c r="J4" s="5">
-        <v>4</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="3">
-        <v>200</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>200</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="5">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W4" s="5">
-        <v>4</v>
-      </c>
-      <c r="X4" s="5">
-        <v>42</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5">
-        <v>43</v>
-      </c>
-      <c r="J5" s="5">
-        <v>5</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="3">
-        <v>200</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>200</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" s="5">
-        <v>1</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W5" s="5">
-        <v>5</v>
-      </c>
-      <c r="X5" s="5">
-        <v>43</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>44</v>
-      </c>
-      <c r="J6" s="9">
-        <v>6</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="8">
-        <v>200</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>200</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="9">
-        <v>1</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="W6" s="9">
-        <v>6</v>
-      </c>
-      <c r="X6" s="9">
-        <v>44</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5">
-        <v>45</v>
-      </c>
-      <c r="J7" s="5">
-        <v>7</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="3">
-        <v>200</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>200</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" s="5">
-        <v>2</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W7" s="5">
-        <v>7</v>
-      </c>
-      <c r="X7" s="5">
-        <v>45</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="5">
-        <v>46</v>
-      </c>
-      <c r="J8" s="5">
-        <v>8</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="3">
-        <v>200</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>200</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8" s="5">
-        <v>2</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W8" s="5">
-        <v>8</v>
-      </c>
-      <c r="X8" s="5">
-        <v>46</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="5">
-        <v>47</v>
-      </c>
-      <c r="J9" s="5">
-        <v>9</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="3">
-        <v>200</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>200</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T9" s="5">
-        <v>2</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W9" s="5">
-        <v>9</v>
-      </c>
-      <c r="X9" s="5">
-        <v>47</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="5">
-        <v>48</v>
-      </c>
-      <c r="J10" s="5">
-        <v>10</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="3">
-        <v>200</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>200</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T10" s="5">
-        <v>2</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W10" s="5">
-        <v>10</v>
-      </c>
-      <c r="X10" s="5">
-        <v>48</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5AC4B7-6134-45E3-A57F-AB8A9E04659F}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>200</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/test/java/Subscriptions/Data/Executions_Subscription.xlsx
+++ b/src/test/java/Subscriptions/Data/Executions_Subscription.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_OMSAPI\src\test\java\Subscriptions\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\Subscriptions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A83A0A-83C4-4C77-BA27-9FC32E876887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A827F9-C2C6-4AB0-9553-0161CD9A506D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="537" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="537" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="SubscribeBUYExecutions" sheetId="10" r:id="rId1"/>
@@ -697,9 +697,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -737,7 +737,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -843,7 +843,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -985,7 +985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41536820-D56A-41BA-A388-6D13CFA1508B}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
